--- a/results2.xlsx
+++ b/results2.xlsx
@@ -1,19 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10212"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10912"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Morgans/Desktop/trading_system/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7AA63252-3E38-5548-B5F6-540578E11256}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57789415-DC8F-8B45-8E39-E93DB75B59F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-19680" yWindow="6360" windowWidth="28040" windowHeight="17440" xr2:uid="{CFD618C8-9C6A-A949-8BF4-4F79507F1C39}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="64000" windowHeight="35540" activeTab="1" xr2:uid="{CFD618C8-9C6A-A949-8BF4-4F79507F1C39}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="19">
   <si>
     <t xml:space="preserve">window size </t>
   </si>
@@ -50,14 +51,77 @@
   <si>
     <t>sharpe ratio</t>
   </si>
+  <si>
+    <t>Window size</t>
+  </si>
+  <si>
+    <t>Accumulated return</t>
+  </si>
+  <si>
+    <t>Max drawdown</t>
+  </si>
+  <si>
+    <t>Shapre ratio</t>
+  </si>
+  <si>
+    <t>Alpha</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t>DDPG</t>
+  </si>
+  <si>
+    <t>Distributional DDPG</t>
+  </si>
+  <si>
+    <t>Hierarchical DDPG</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Distributional DDPG </t>
+  </si>
+  <si>
+    <t>alpha =1</t>
+  </si>
+  <si>
+    <t>MDD</t>
+  </si>
+  <si>
+    <t>SR</t>
+  </si>
+  <si>
+    <t>AR</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -93,7 +157,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -121,6 +185,42 @@
     </xf>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -438,8 +538,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B3C34576-9992-084D-BD9A-3E0747B1E83A}">
   <dimension ref="A1:E17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E17" sqref="A1:E17"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="N36" sqref="N36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -713,4 +813,1118 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2B034F56-E315-E34A-B0D3-FA95F6D8A529}">
+  <dimension ref="A1:AD44"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="AA56" sqref="AA56"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="20.5" customWidth="1"/>
+    <col min="2" max="2" width="20.6640625" customWidth="1"/>
+    <col min="3" max="3" width="17" customWidth="1"/>
+    <col min="4" max="4" width="14.83203125" customWidth="1"/>
+    <col min="5" max="5" width="12.83203125" customWidth="1"/>
+    <col min="11" max="11" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="12" max="14" width="6.1640625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="5" bestFit="1" customWidth="1"/>
+    <col min="16" max="18" width="6.1640625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="4" bestFit="1" customWidth="1"/>
+    <col min="20" max="22" width="6.1640625" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="15" customWidth="1"/>
+    <col min="27" max="27" width="18" customWidth="1"/>
+    <col min="28" max="28" width="17.1640625" customWidth="1"/>
+    <col min="29" max="29" width="21.6640625" customWidth="1"/>
+    <col min="30" max="30" width="21.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="23" t="s">
+        <v>5</v>
+      </c>
+      <c r="L1" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="13"/>
+      <c r="N1" s="13"/>
+      <c r="O1" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="P1" s="13"/>
+      <c r="Q1" s="13"/>
+      <c r="R1" s="13"/>
+      <c r="S1" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="T1" s="13"/>
+      <c r="U1" s="13"/>
+      <c r="V1" s="13"/>
+      <c r="AA1" s="12"/>
+      <c r="AB1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="AC1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="AD1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="A2" s="1">
+        <v>5</v>
+      </c>
+      <c r="B2" s="3">
+        <v>0.111</v>
+      </c>
+      <c r="C2" s="3">
+        <v>0.13589999999999999</v>
+      </c>
+      <c r="D2" s="3">
+        <v>0.38450000000000001</v>
+      </c>
+      <c r="K2" s="23"/>
+      <c r="L2" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="M2" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="N2" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="O2" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="P2" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q2" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="R2" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="S2" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="T2" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="U2" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="V2" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="Z2" s="11"/>
+      <c r="AA2" s="12"/>
+      <c r="AB2" s="1"/>
+      <c r="AC2" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="A3" s="1">
+        <v>10</v>
+      </c>
+      <c r="B3" s="3">
+        <v>0.105</v>
+      </c>
+      <c r="C3" s="3">
+        <v>0.1358</v>
+      </c>
+      <c r="D3" s="3">
+        <v>0.36470000000000002</v>
+      </c>
+      <c r="K3" s="14">
+        <v>5</v>
+      </c>
+      <c r="L3" s="15">
+        <v>0.111</v>
+      </c>
+      <c r="M3" s="15">
+        <v>0.13589999999999999</v>
+      </c>
+      <c r="N3" s="15">
+        <v>0.38450000000000001</v>
+      </c>
+      <c r="O3" s="16">
+        <v>0.05</v>
+      </c>
+      <c r="P3" s="15">
+        <v>0</v>
+      </c>
+      <c r="Q3" s="15">
+        <v>0</v>
+      </c>
+      <c r="R3" s="15">
+        <v>0</v>
+      </c>
+      <c r="S3" s="16">
+        <v>0.05</v>
+      </c>
+      <c r="T3" s="15">
+        <v>0.1288</v>
+      </c>
+      <c r="U3" s="15">
+        <v>0.10299999999999999</v>
+      </c>
+      <c r="V3" s="15">
+        <v>0.35680000000000001</v>
+      </c>
+      <c r="AA3" s="12" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="A4" s="1">
+        <v>20</v>
+      </c>
+      <c r="B4" s="3">
+        <v>0.1293</v>
+      </c>
+      <c r="C4" s="3">
+        <v>0.13589999999999999</v>
+      </c>
+      <c r="D4" s="3">
+        <v>0.38440000000000002</v>
+      </c>
+      <c r="K4" s="17"/>
+      <c r="L4" s="17"/>
+      <c r="M4" s="17"/>
+      <c r="N4" s="17"/>
+      <c r="O4" s="16">
+        <v>0.15</v>
+      </c>
+      <c r="P4" s="15">
+        <v>2.41E-2</v>
+      </c>
+      <c r="Q4" s="15">
+        <v>9.8799999999999999E-2</v>
+      </c>
+      <c r="R4" s="15">
+        <v>0.17710000000000001</v>
+      </c>
+      <c r="S4" s="16">
+        <v>0.08</v>
+      </c>
+      <c r="T4" s="15">
+        <v>0.1731</v>
+      </c>
+      <c r="U4" s="15">
+        <v>0.11700000000000001</v>
+      </c>
+      <c r="V4" s="15">
+        <v>0.51239999999999997</v>
+      </c>
+      <c r="AA4" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="A5" s="1">
+        <v>25</v>
+      </c>
+      <c r="B5" s="3">
+        <v>0.1474</v>
+      </c>
+      <c r="C5" s="3">
+        <v>0.13589999999999999</v>
+      </c>
+      <c r="D5" s="3">
+        <v>0.39939999999999998</v>
+      </c>
+      <c r="K5" s="17"/>
+      <c r="L5" s="17"/>
+      <c r="M5" s="17"/>
+      <c r="N5" s="17"/>
+      <c r="O5" s="16">
+        <v>0.3</v>
+      </c>
+      <c r="P5" s="15">
+        <v>0.1118</v>
+      </c>
+      <c r="Q5" s="15">
+        <v>0.13589999999999999</v>
+      </c>
+      <c r="R5" s="15">
+        <v>0.33760000000000001</v>
+      </c>
+      <c r="S5" s="16">
+        <v>0.13</v>
+      </c>
+      <c r="T5" s="15">
+        <v>0.1288</v>
+      </c>
+      <c r="U5" s="15">
+        <v>0.11700000000000001</v>
+      </c>
+      <c r="V5" s="15">
+        <v>0.38979999999999998</v>
+      </c>
+      <c r="AA5" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="K6" s="18"/>
+      <c r="L6" s="18"/>
+      <c r="M6" s="18"/>
+      <c r="N6" s="18"/>
+      <c r="O6" s="19">
+        <v>0.5</v>
+      </c>
+      <c r="P6" s="20">
+        <v>0.127</v>
+      </c>
+      <c r="Q6" s="20">
+        <v>0.13589999999999999</v>
+      </c>
+      <c r="R6" s="20">
+        <v>0.36520000000000002</v>
+      </c>
+      <c r="S6" s="18"/>
+      <c r="T6" s="18"/>
+      <c r="U6" s="18"/>
+      <c r="V6" s="18"/>
+      <c r="AA6" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="K7" s="14">
+        <v>10</v>
+      </c>
+      <c r="L7" s="15">
+        <v>0.105</v>
+      </c>
+      <c r="M7" s="15">
+        <v>0.1358</v>
+      </c>
+      <c r="N7" s="15">
+        <v>0.36470000000000002</v>
+      </c>
+      <c r="O7" s="16">
+        <v>0.05</v>
+      </c>
+      <c r="P7" s="15">
+        <v>0</v>
+      </c>
+      <c r="Q7" s="15">
+        <v>0</v>
+      </c>
+      <c r="R7" s="15">
+        <v>0</v>
+      </c>
+      <c r="S7" s="16">
+        <v>0.05</v>
+      </c>
+      <c r="T7" s="15">
+        <v>0.1507</v>
+      </c>
+      <c r="U7" s="15">
+        <v>0.10050000000000001</v>
+      </c>
+      <c r="V7" s="15">
+        <v>0.69379999999999997</v>
+      </c>
+    </row>
+    <row r="8" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="K8" s="17"/>
+      <c r="L8" s="17"/>
+      <c r="M8" s="17"/>
+      <c r="N8" s="17"/>
+      <c r="O8" s="16">
+        <v>0.15</v>
+      </c>
+      <c r="P8" s="15">
+        <v>4.2200000000000001E-2</v>
+      </c>
+      <c r="Q8" s="15">
+        <v>6.88E-2</v>
+      </c>
+      <c r="R8" s="15">
+        <v>0.21099999999999999</v>
+      </c>
+      <c r="S8" s="16">
+        <v>0.08</v>
+      </c>
+      <c r="T8" s="15">
+        <v>0.17299999999999999</v>
+      </c>
+      <c r="U8" s="15">
+        <v>0.1168</v>
+      </c>
+      <c r="V8" s="15">
+        <v>0.76829999999999998</v>
+      </c>
+    </row>
+    <row r="9" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="A9" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K9" s="17"/>
+      <c r="L9" s="17"/>
+      <c r="M9" s="17"/>
+      <c r="N9" s="17"/>
+      <c r="O9" s="16">
+        <v>0.3</v>
+      </c>
+      <c r="P9" s="15">
+        <v>0.1032</v>
+      </c>
+      <c r="Q9" s="15">
+        <v>9.6799999999999997E-2</v>
+      </c>
+      <c r="R9" s="15">
+        <v>0.34050000000000002</v>
+      </c>
+      <c r="S9" s="16">
+        <v>0.13</v>
+      </c>
+      <c r="T9" s="15">
+        <v>0.16</v>
+      </c>
+      <c r="U9" s="15">
+        <v>0.1295</v>
+      </c>
+      <c r="V9" s="15">
+        <v>0.58140000000000003</v>
+      </c>
+    </row>
+    <row r="10" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="A10" s="1">
+        <v>5</v>
+      </c>
+      <c r="B10" s="2">
+        <v>0.05</v>
+      </c>
+      <c r="C10" s="3">
+        <v>0</v>
+      </c>
+      <c r="D10" s="3">
+        <v>0</v>
+      </c>
+      <c r="E10" s="3">
+        <v>0</v>
+      </c>
+      <c r="K10" s="18"/>
+      <c r="L10" s="18"/>
+      <c r="M10" s="18"/>
+      <c r="N10" s="18"/>
+      <c r="O10" s="19">
+        <v>0.5</v>
+      </c>
+      <c r="P10" s="20">
+        <v>0.1167</v>
+      </c>
+      <c r="Q10" s="20">
+        <v>0.13589999999999999</v>
+      </c>
+      <c r="R10" s="20">
+        <v>0.34610000000000002</v>
+      </c>
+      <c r="S10" s="18"/>
+      <c r="T10" s="18"/>
+      <c r="U10" s="18"/>
+      <c r="V10" s="18"/>
+    </row>
+    <row r="11" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="A11" s="1"/>
+      <c r="B11" s="2">
+        <v>0.15</v>
+      </c>
+      <c r="C11" s="3">
+        <v>2.41E-2</v>
+      </c>
+      <c r="D11" s="3">
+        <v>9.8799999999999999E-2</v>
+      </c>
+      <c r="E11" s="3">
+        <v>0.17710000000000001</v>
+      </c>
+      <c r="K11" s="14">
+        <v>20</v>
+      </c>
+      <c r="L11" s="15">
+        <v>0.1293</v>
+      </c>
+      <c r="M11" s="15">
+        <v>0.13589999999999999</v>
+      </c>
+      <c r="N11" s="15">
+        <v>0.38440000000000002</v>
+      </c>
+      <c r="O11" s="16">
+        <v>0.05</v>
+      </c>
+      <c r="P11" s="15">
+        <v>0</v>
+      </c>
+      <c r="Q11" s="15">
+        <v>0</v>
+      </c>
+      <c r="R11" s="15">
+        <v>0</v>
+      </c>
+      <c r="S11" s="16">
+        <v>0.05</v>
+      </c>
+      <c r="T11" s="15">
+        <v>0.21179999999999999</v>
+      </c>
+      <c r="U11" s="15">
+        <v>0.10299999999999999</v>
+      </c>
+      <c r="V11" s="15">
+        <v>0.66139999999999999</v>
+      </c>
+    </row>
+    <row r="12" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="A12" s="1"/>
+      <c r="B12" s="2">
+        <v>0.3</v>
+      </c>
+      <c r="C12" s="3">
+        <v>0.1118</v>
+      </c>
+      <c r="D12" s="3">
+        <v>0.13589999999999999</v>
+      </c>
+      <c r="E12" s="3">
+        <v>0.33760000000000001</v>
+      </c>
+      <c r="K12" s="17"/>
+      <c r="L12" s="17"/>
+      <c r="M12" s="17"/>
+      <c r="N12" s="17"/>
+      <c r="O12" s="21">
+        <v>0.15</v>
+      </c>
+      <c r="P12" s="15">
+        <v>8.3699999999999997E-2</v>
+      </c>
+      <c r="Q12" s="15">
+        <v>9.9500000000000005E-2</v>
+      </c>
+      <c r="R12" s="15">
+        <v>0.2858</v>
+      </c>
+      <c r="S12" s="16">
+        <v>0.08</v>
+      </c>
+      <c r="T12" s="15">
+        <v>2.7000000000000003E-2</v>
+      </c>
+      <c r="U12" s="15">
+        <v>0.14230000000000001</v>
+      </c>
+      <c r="V12" s="15">
+        <v>0.15240000000000001</v>
+      </c>
+    </row>
+    <row r="13" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="A13" s="1"/>
+      <c r="B13" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="C13" s="3">
+        <v>0.127</v>
+      </c>
+      <c r="D13" s="3">
+        <v>0.13589999999999999</v>
+      </c>
+      <c r="E13" s="3">
+        <v>0.36520000000000002</v>
+      </c>
+      <c r="K13" s="17"/>
+      <c r="L13" s="17"/>
+      <c r="M13" s="17"/>
+      <c r="N13" s="17"/>
+      <c r="O13" s="21">
+        <v>0.3</v>
+      </c>
+      <c r="P13" s="15">
+        <v>0.1396</v>
+      </c>
+      <c r="Q13" s="15">
+        <v>0.13589999999999999</v>
+      </c>
+      <c r="R13" s="15">
+        <v>0.38550000000000001</v>
+      </c>
+      <c r="S13" s="16">
+        <v>0.13</v>
+      </c>
+      <c r="T13" s="15">
+        <v>4.7E-2</v>
+      </c>
+      <c r="U13" s="15">
+        <v>0.1328</v>
+      </c>
+      <c r="V13" s="15">
+        <v>0.21879999999999999</v>
+      </c>
+    </row>
+    <row r="14" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="A14" s="1">
+        <v>10</v>
+      </c>
+      <c r="B14" s="2">
+        <v>0.05</v>
+      </c>
+      <c r="C14" s="3">
+        <v>0</v>
+      </c>
+      <c r="D14" s="3">
+        <v>0</v>
+      </c>
+      <c r="E14" s="3">
+        <v>0</v>
+      </c>
+      <c r="K14" s="18"/>
+      <c r="L14" s="18"/>
+      <c r="M14" s="18"/>
+      <c r="N14" s="18"/>
+      <c r="O14" s="22">
+        <v>0.5</v>
+      </c>
+      <c r="P14" s="20">
+        <v>0.1396</v>
+      </c>
+      <c r="Q14" s="20">
+        <v>0.13589999999999999</v>
+      </c>
+      <c r="R14" s="20">
+        <v>0.38550000000000001</v>
+      </c>
+      <c r="S14" s="18"/>
+      <c r="T14" s="18"/>
+      <c r="U14" s="18"/>
+      <c r="V14" s="18"/>
+    </row>
+    <row r="15" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="A15" s="1"/>
+      <c r="B15" s="2">
+        <v>0.15</v>
+      </c>
+      <c r="C15" s="3">
+        <v>4.2200000000000001E-2</v>
+      </c>
+      <c r="D15" s="3">
+        <v>6.88E-2</v>
+      </c>
+      <c r="E15" s="3">
+        <v>0.21099999999999999</v>
+      </c>
+      <c r="K15" s="14">
+        <v>25</v>
+      </c>
+      <c r="L15" s="15">
+        <v>0.1474</v>
+      </c>
+      <c r="M15" s="15">
+        <v>0.13589999999999999</v>
+      </c>
+      <c r="N15" s="15">
+        <v>0.39939999999999998</v>
+      </c>
+      <c r="O15" s="16">
+        <v>0.05</v>
+      </c>
+      <c r="P15" s="15">
+        <v>8.3699999999999997E-2</v>
+      </c>
+      <c r="Q15" s="15">
+        <v>9.9500000000000005E-2</v>
+      </c>
+      <c r="R15" s="15">
+        <v>0.2858</v>
+      </c>
+      <c r="S15" s="16">
+        <v>0.05</v>
+      </c>
+      <c r="T15" s="15">
+        <v>8.5999999999999993E-2</v>
+      </c>
+      <c r="U15" s="15">
+        <v>0.1246</v>
+      </c>
+      <c r="V15" s="15">
+        <v>0.32369999999999999</v>
+      </c>
+    </row>
+    <row r="16" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="A16" s="1"/>
+      <c r="B16" s="2">
+        <v>0.3</v>
+      </c>
+      <c r="C16" s="3">
+        <v>0.1032</v>
+      </c>
+      <c r="D16" s="3">
+        <v>9.6799999999999997E-2</v>
+      </c>
+      <c r="E16" s="3">
+        <v>0.34050000000000002</v>
+      </c>
+      <c r="K16" s="17"/>
+      <c r="L16" s="17"/>
+      <c r="M16" s="17"/>
+      <c r="N16" s="17"/>
+      <c r="O16" s="21">
+        <v>0.15</v>
+      </c>
+      <c r="P16" s="15">
+        <v>0.13769999999999999</v>
+      </c>
+      <c r="Q16" s="15">
+        <v>0.13589999999999999</v>
+      </c>
+      <c r="R16" s="15">
+        <v>0.38229999999999997</v>
+      </c>
+      <c r="S16" s="16">
+        <v>0.08</v>
+      </c>
+      <c r="T16" s="15">
+        <v>-3.0999999999999999E-3</v>
+      </c>
+      <c r="U16" s="15">
+        <v>0.14230000000000001</v>
+      </c>
+      <c r="V16" s="15">
+        <v>9.2999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A17" s="1"/>
+      <c r="B17" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="C17" s="3">
+        <v>0.1167</v>
+      </c>
+      <c r="D17" s="3">
+        <v>0.13589999999999999</v>
+      </c>
+      <c r="E17" s="3">
+        <v>0.34610000000000002</v>
+      </c>
+      <c r="K17" s="17"/>
+      <c r="L17" s="17"/>
+      <c r="M17" s="17"/>
+      <c r="N17" s="17"/>
+      <c r="O17" s="21">
+        <v>0.3</v>
+      </c>
+      <c r="P17" s="15">
+        <v>0.13769999999999999</v>
+      </c>
+      <c r="Q17" s="15">
+        <v>0.13589999999999999</v>
+      </c>
+      <c r="R17" s="15">
+        <v>0.3826</v>
+      </c>
+      <c r="S17" s="16">
+        <v>0.13</v>
+      </c>
+      <c r="T17" s="15">
+        <v>0.13719999999999999</v>
+      </c>
+      <c r="U17" s="15">
+        <v>0.13589999999999999</v>
+      </c>
+      <c r="V17" s="15">
+        <v>0.38140000000000002</v>
+      </c>
+    </row>
+    <row r="18" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A18" s="1">
+        <v>20</v>
+      </c>
+      <c r="B18" s="2">
+        <v>0.05</v>
+      </c>
+      <c r="C18" s="3">
+        <v>0</v>
+      </c>
+      <c r="D18" s="3">
+        <v>0</v>
+      </c>
+      <c r="E18" s="3">
+        <v>0</v>
+      </c>
+      <c r="K18" s="18"/>
+      <c r="L18" s="18"/>
+      <c r="M18" s="18"/>
+      <c r="N18" s="18"/>
+      <c r="O18" s="22">
+        <v>0.5</v>
+      </c>
+      <c r="P18" s="20">
+        <v>0.13769999999999999</v>
+      </c>
+      <c r="Q18" s="20">
+        <v>0.13589999999999999</v>
+      </c>
+      <c r="R18" s="20">
+        <v>0.3826</v>
+      </c>
+      <c r="S18" s="18"/>
+      <c r="T18" s="18"/>
+      <c r="U18" s="18"/>
+      <c r="V18" s="18"/>
+    </row>
+    <row r="19" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A19" s="1"/>
+      <c r="B19" s="10">
+        <v>0.15</v>
+      </c>
+      <c r="C19" s="3">
+        <v>8.3699999999999997E-2</v>
+      </c>
+      <c r="D19" s="3">
+        <v>9.9500000000000005E-2</v>
+      </c>
+      <c r="E19" s="3">
+        <v>0.2858</v>
+      </c>
+    </row>
+    <row r="20" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A20" s="1"/>
+      <c r="B20" s="10">
+        <v>0.3</v>
+      </c>
+      <c r="C20" s="3">
+        <v>0.1396</v>
+      </c>
+      <c r="D20" s="3">
+        <v>0.13589999999999999</v>
+      </c>
+      <c r="E20" s="3">
+        <v>0.38550000000000001</v>
+      </c>
+    </row>
+    <row r="21" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A21" s="1"/>
+      <c r="B21" s="10">
+        <v>0.5</v>
+      </c>
+      <c r="C21" s="3">
+        <v>0.1396</v>
+      </c>
+      <c r="D21" s="3">
+        <v>0.13589999999999999</v>
+      </c>
+      <c r="E21" s="3">
+        <v>0.38550000000000001</v>
+      </c>
+    </row>
+    <row r="22" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A22" s="1">
+        <v>25</v>
+      </c>
+      <c r="B22" s="2">
+        <v>0.05</v>
+      </c>
+      <c r="C22" s="3">
+        <v>8.3699999999999997E-2</v>
+      </c>
+      <c r="D22" s="3">
+        <v>9.9500000000000005E-2</v>
+      </c>
+      <c r="E22" s="3">
+        <v>0.2858</v>
+      </c>
+    </row>
+    <row r="23" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A23" s="1"/>
+      <c r="B23" s="10">
+        <v>0.15</v>
+      </c>
+      <c r="C23" s="3">
+        <v>0.13769999999999999</v>
+      </c>
+      <c r="D23" s="3">
+        <v>0.13589999999999999</v>
+      </c>
+      <c r="E23" s="3">
+        <v>0.38229999999999997</v>
+      </c>
+    </row>
+    <row r="24" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A24" s="1"/>
+      <c r="B24" s="10">
+        <v>0.3</v>
+      </c>
+      <c r="C24" s="3">
+        <v>0.13769999999999999</v>
+      </c>
+      <c r="D24" s="3">
+        <v>0.13589999999999999</v>
+      </c>
+      <c r="E24" s="3">
+        <v>0.3826</v>
+      </c>
+    </row>
+    <row r="25" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A25" s="1"/>
+      <c r="B25" s="10">
+        <v>0.5</v>
+      </c>
+      <c r="C25" s="3">
+        <v>0.13769999999999999</v>
+      </c>
+      <c r="D25" s="3">
+        <v>0.13589999999999999</v>
+      </c>
+      <c r="E25" s="3">
+        <v>0.3826</v>
+      </c>
+    </row>
+    <row r="32" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A32" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E32" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A33" s="1">
+        <v>5</v>
+      </c>
+      <c r="B33" s="2">
+        <v>0.05</v>
+      </c>
+      <c r="C33" s="3">
+        <v>0.1288</v>
+      </c>
+      <c r="D33" s="3">
+        <v>0.10299999999999999</v>
+      </c>
+      <c r="E33" s="3">
+        <v>0.35680000000000001</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A34" s="1"/>
+      <c r="B34" s="2">
+        <v>0.08</v>
+      </c>
+      <c r="C34" s="3">
+        <v>0.1731</v>
+      </c>
+      <c r="D34" s="3">
+        <v>0.11700000000000001</v>
+      </c>
+      <c r="E34" s="3">
+        <v>0.51239999999999997</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A35" s="1"/>
+      <c r="B35" s="2">
+        <v>0.13</v>
+      </c>
+      <c r="C35" s="3">
+        <v>0.1288</v>
+      </c>
+      <c r="D35" s="3">
+        <v>0.11700000000000001</v>
+      </c>
+      <c r="E35" s="3">
+        <v>0.38979999999999998</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A36" s="1">
+        <v>10</v>
+      </c>
+      <c r="B36" s="2">
+        <v>0.05</v>
+      </c>
+      <c r="C36" s="3">
+        <v>0.1507</v>
+      </c>
+      <c r="D36" s="3">
+        <v>0.10050000000000001</v>
+      </c>
+      <c r="E36" s="3">
+        <v>0.69379999999999997</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A37" s="1"/>
+      <c r="B37" s="2">
+        <v>0.08</v>
+      </c>
+      <c r="C37" s="3">
+        <v>0.17299999999999999</v>
+      </c>
+      <c r="D37" s="3">
+        <v>0.1168</v>
+      </c>
+      <c r="E37" s="3">
+        <v>0.76829999999999998</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A38" s="1"/>
+      <c r="B38" s="2">
+        <v>0.13</v>
+      </c>
+      <c r="C38" s="3">
+        <v>0.16</v>
+      </c>
+      <c r="D38" s="3">
+        <v>0.1295</v>
+      </c>
+      <c r="E38" s="3">
+        <v>0.58140000000000003</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A39" s="1">
+        <v>20</v>
+      </c>
+      <c r="B39" s="2">
+        <v>0.05</v>
+      </c>
+      <c r="C39" s="3">
+        <v>0.21179999999999999</v>
+      </c>
+      <c r="D39" s="3">
+        <v>0.10299999999999999</v>
+      </c>
+      <c r="E39" s="3">
+        <v>0.66139999999999999</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A40" s="1"/>
+      <c r="B40" s="2">
+        <v>0.08</v>
+      </c>
+      <c r="C40" s="3">
+        <v>2.7000000000000003E-2</v>
+      </c>
+      <c r="D40" s="3">
+        <v>0.14230000000000001</v>
+      </c>
+      <c r="E40" s="3">
+        <v>0.15240000000000001</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A41" s="1"/>
+      <c r="B41" s="2">
+        <v>0.13</v>
+      </c>
+      <c r="C41" s="3">
+        <v>4.7E-2</v>
+      </c>
+      <c r="D41" s="3">
+        <v>0.1328</v>
+      </c>
+      <c r="E41" s="3">
+        <v>0.21879999999999999</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A42" s="1">
+        <v>25</v>
+      </c>
+      <c r="B42" s="2">
+        <v>0.05</v>
+      </c>
+      <c r="C42" s="3">
+        <v>8.5999999999999993E-2</v>
+      </c>
+      <c r="D42" s="3">
+        <v>0.1246</v>
+      </c>
+      <c r="E42" s="3">
+        <v>0.32369999999999999</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A43" s="1"/>
+      <c r="B43" s="2">
+        <v>0.08</v>
+      </c>
+      <c r="C43" s="3">
+        <v>-3.0999999999999999E-3</v>
+      </c>
+      <c r="D43" s="3">
+        <v>0.14230000000000001</v>
+      </c>
+      <c r="E43" s="3">
+        <v>9.2999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B44" s="2">
+        <v>0.13</v>
+      </c>
+      <c r="C44" s="3">
+        <v>0.13719999999999999</v>
+      </c>
+      <c r="D44" s="3">
+        <v>0.13589999999999999</v>
+      </c>
+      <c r="E44" s="3">
+        <v>0.38140000000000002</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="L1:N1"/>
+    <mergeCell ref="O1:R1"/>
+    <mergeCell ref="S1:V1"/>
+    <mergeCell ref="K1:K2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>